--- a/ErrorEPR.xlsx
+++ b/ErrorEPR.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shund\Desktop\视点分析相关\SightPoint\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88994B5-5A37-4367-A2DC-74589F2F5E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="34305" yWindow="2580" windowWidth="19905" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,279 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+  <si>
+    <t>78387_0_BCC.ndpi</t>
+  </si>
+  <si>
+    <t>83529_0_BCC.ndpi</t>
+  </si>
+  <si>
+    <t>83529_1_BCC.ndpi</t>
+  </si>
+  <si>
+    <t>83529_2_BCC.ndpi</t>
+  </si>
+  <si>
+    <t>_x0001_</t>
+  </si>
+  <si>
+    <t>81332_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>81839_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>81885_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>82927_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>83346_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>83714_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>86891_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>_x0001_黑素</t>
+  </si>
+  <si>
+    <t>86891_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>87863_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>88396_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>63334_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>_x0001_黑素细胞</t>
+  </si>
+  <si>
+    <t>63356_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>64537_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>64881_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>65198_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>68699_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>70595_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>70915_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>72180_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>73256_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>73367_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>74965_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>75489_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>_x0001_黑素细胞肿瘤（melancytic tu</t>
+  </si>
+  <si>
+    <t>75515_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>75666_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>75957_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>77135_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>77855_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>78083_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>79329_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>79831_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>79885_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>79960_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>00524_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>01195_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>01568_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>02406_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>02955_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>03513_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>03733_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>03826_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>03851_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>03994_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>04362_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>04489_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>05651_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>05651_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>05651_2_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>05684_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>05684_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>06859_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>08664_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>09248_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>15800_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>20248_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>20378_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>20378_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>20378_2_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>21067_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>21067_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>21067_2_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>23250_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>23250_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>23452_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>23452_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>23452_2_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>23518_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>_x0002_黑素细胞肿瘤（me</t>
+  </si>
+  <si>
+    <t>23518_2_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>24083_0_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>24083_1_melanoma.ndpi</t>
+  </si>
+  <si>
+    <t>70138_0_BCC.ndpi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>81221_0_melanoma.ndpi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\shund\Desktop\郑松\2021年10月16日-1\81221_0_melanoma.epr</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +320,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +605,592 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="70.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>